--- a/responses.xlsx
+++ b/responses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/IQP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/IQP/IQP_Survey_Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05525B5F-74AF-4CC9-AB4A-68B8BD342AAD}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3757A4F4-7850-478C-A18F-BD4F65225226}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="325">
   <si>
     <t>19/04/2024 18:04:50</t>
   </si>
@@ -466,6 +466,139 @@
     <t>20/04/2024 11:00:32</t>
   </si>
   <si>
+    <t>20/04/2024 16:55:42</t>
+  </si>
+  <si>
+    <t>I loved the effort that went into the video it was very engaging!!!</t>
+  </si>
+  <si>
+    <t>I loved the design and how simple it was to understand where to go! The video was super impressive and the passages were well researched!</t>
+  </si>
+  <si>
+    <t>Not really</t>
+  </si>
+  <si>
+    <t>More videos (but that takes a while)</t>
+  </si>
+  <si>
+    <t>20/04/2024 21:02:58</t>
+  </si>
+  <si>
+    <t>How her family overcame disparity</t>
+  </si>
+  <si>
+    <t>Viewing the beauty of the temple and understanding the strong faith</t>
+  </si>
+  <si>
+    <t>How easy it was to navigate</t>
+  </si>
+  <si>
+    <t>I appreciated the opportunity to learn about a culture and country that has so much value and respect for their ancestors.</t>
+  </si>
+  <si>
+    <t>20/04/2024 21:29:10</t>
+  </si>
+  <si>
+    <t>20/04/2024 23:08:07</t>
+  </si>
+  <si>
+    <t>I liked Lily’s page the most because it had the most detail about Shilin. The others had info, but it would’ve been interesting to be able to read more about the impact of the others’ lives and families on Shilin</t>
+  </si>
+  <si>
+    <t>There’s a lot of cool specifics in the details on this page</t>
+  </si>
+  <si>
+    <t>I liked how responsive it felt; loading times were within expectations, and the design felt really clean</t>
+  </si>
+  <si>
+    <t>There were a a couple small details that weren’t quite ironed out yet. For instance, the map doesn’t fully occupy the space given to it in a few of the pages. This is pretty nitpicky though, overall I was a fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Would have liked more details on the written sections!</t>
+  </si>
+  <si>
+    <t>I’ve never in my life answered anything more than “no” to “would you recommend this site to a friend”, but if you asked “do you like this site”, I’d say yes 9/10</t>
+  </si>
+  <si>
+    <t>21/04/2024 03:54:44</t>
+  </si>
+  <si>
+    <t>I liked learning about the temple, and its long history.</t>
+  </si>
+  <si>
+    <t>Cool to learn about the history of the factory</t>
+  </si>
+  <si>
+    <t>the range of stories, the photos capturing the area - and learning about a place I'd never been heard of, though I've been to Taipei.</t>
+  </si>
+  <si>
+    <t>very little</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>Good job dude!</t>
+  </si>
+  <si>
+    <t>21/04/2024 15:45:35</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Most detailed and specific insights</t>
+  </si>
+  <si>
+    <t>Visually pleasing</t>
+  </si>
+  <si>
+    <t>Longer stories, more places</t>
+  </si>
+  <si>
+    <t>21/04/2024 18:15:36</t>
+  </si>
+  <si>
+    <t>I really liked the scroll down photo feature on the homepage when visiting on smart phone.</t>
+  </si>
+  <si>
+    <t>Website made me want to visit Shilin</t>
+  </si>
+  <si>
+    <t>21/04/2024 21:36:45</t>
+  </si>
+  <si>
+    <t>21/04/2024 23:17:43</t>
+  </si>
+  <si>
+    <t>21/04/2024 23:25:14</t>
+  </si>
+  <si>
+    <t>Still under construction on some stories!</t>
+  </si>
+  <si>
+    <t>21/04/2024 23:32:21</t>
+  </si>
+  <si>
+    <t>22/04/2024 00:08:25</t>
+  </si>
+  <si>
+    <t>It was very personal and entertaining</t>
+  </si>
+  <si>
+    <t>It was an interesting story</t>
+  </si>
+  <si>
+    <t>It’s very clean looking!</t>
+  </si>
+  <si>
+    <t>The architecture “place” didnt really talk about enough buildings or other areas shown in the photo gallery, it only spoke of the canals</t>
+  </si>
+  <si>
+    <t>22/04/2024 00:27:08</t>
+  </si>
+  <si>
     <t>19/04/2024 22:15:09</t>
   </si>
   <si>
@@ -505,18 +638,150 @@
     <t>目前沒有</t>
   </si>
   <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>桌上型電腦/筆記型電腦</t>
+  </si>
+  <si>
+    <t>20/04/2024 19:01:33</t>
+  </si>
+  <si>
+    <t>20/04/2024 19:01:47</t>
+  </si>
+  <si>
+    <t>很便利</t>
+  </si>
+  <si>
+    <t>有搭配圖</t>
+  </si>
+  <si>
+    <t>很棒</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t>謝謝您</t>
+  </si>
+  <si>
+    <t>20/04/2024 19:01:55</t>
+  </si>
+  <si>
+    <t>20/04/2024 19:01:58</t>
+  </si>
+  <si>
+    <t>21/04/2024 15:18:02</t>
+  </si>
+  <si>
+    <t>21/04/2024 16:49:15</t>
+  </si>
+  <si>
+    <t>影片解說很詳細</t>
+  </si>
+  <si>
+    <t>士林國小是現代國民教育的發祥地</t>
+  </si>
+  <si>
+    <t>感謝你們關注我們士林的歷史文化，這些內容我都很喜歡。</t>
+  </si>
+  <si>
+    <t>沒有</t>
+  </si>
+  <si>
+    <t>士林夜市</t>
+  </si>
+  <si>
+    <t>21/04/2024 17:40:14</t>
+  </si>
+  <si>
+    <t>21/04/2024 17:42:22</t>
+  </si>
+  <si>
+    <t>21/04/2024 20:16:27</t>
+  </si>
+  <si>
+    <t>很有趣</t>
+  </si>
+  <si>
+    <t>常常經過</t>
+  </si>
+  <si>
+    <t>內容很詳細</t>
+  </si>
+  <si>
+    <t>無 整體來說很棒</t>
+  </si>
+  <si>
+    <t>22/04/2024 00:47:15</t>
+  </si>
+  <si>
+    <t>22/04/2024 01:37:33</t>
+  </si>
+  <si>
+    <t>22/04/2024 05:20:39</t>
+  </si>
+  <si>
+    <t>22/04/2024 05:56:30</t>
+  </si>
+  <si>
+    <t>22/04/2024 05:58:06</t>
+  </si>
+  <si>
+    <t>22/04/2024 07:06:09</t>
+  </si>
+  <si>
+    <t>22/04/2024 07:34:49</t>
+  </si>
+  <si>
+    <t>22/04/2024 09:09:48</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Really informative learned something new</t>
+  </si>
+  <si>
+    <t>I’m interested in their education system</t>
+  </si>
+  <si>
+    <t>I liked how you could click on the pictures and it brought you to a webpage with more information</t>
+  </si>
+  <si>
+    <t>It was perfect</t>
+  </si>
+  <si>
+    <t>Pictures of food</t>
+  </si>
+  <si>
+    <t>Great job!</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:44:24</t>
+  </si>
+  <si>
+    <t>I like each story for different reasons. I appreciate how Wang had grown to love and appreciate the cultural heritage by spending time there.</t>
+  </si>
+  <si>
+    <t>I'm very interested on other cultures' worship, buildings and religion.</t>
+  </si>
+  <si>
+    <t>Liked disparate areas and people for a wonderful cross section of Shilin</t>
+  </si>
+  <si>
+    <t>Nothing!</t>
+  </si>
+  <si>
+    <t>Just more stories, people and places. And food. :) And maybe a "walking tour" itinerary</t>
+  </si>
+  <si>
     <t>20/04/2024 09:26:26</t>
   </si>
   <si>
     <t>美國</t>
   </si>
   <si>
-    <t>男性</t>
-  </si>
-  <si>
-    <t>桌上型電腦/筆記型電腦</t>
-  </si>
-  <si>
     <t>His page contains video where he describes the history of the school well.</t>
   </si>
   <si>
@@ -529,31 +794,214 @@
     <t>None</t>
   </si>
   <si>
-    <t>20/04/2024 19:01:33</t>
-  </si>
-  <si>
-    <t>20/04/2024 19:01:47</t>
-  </si>
-  <si>
-    <t>很便利</t>
-  </si>
-  <si>
-    <t>有搭配圖</t>
-  </si>
-  <si>
-    <t>很棒</t>
-  </si>
-  <si>
-    <t>美食</t>
-  </si>
-  <si>
-    <t>謝謝您</t>
-  </si>
-  <si>
-    <t>20/04/2024 19:01:55</t>
-  </si>
-  <si>
-    <t>20/04/2024 19:01:58</t>
+    <t>21/04/2024 17:07:19</t>
+  </si>
+  <si>
+    <t>the effective and informative design</t>
+  </si>
+  <si>
+    <t>21/04/2024 17:08:24</t>
+  </si>
+  <si>
+    <t>Your website is effective, informative, and well design</t>
+  </si>
+  <si>
+    <t>21/04/2024 20:26:41</t>
+  </si>
+  <si>
+    <t>21/04/2024 21:14:37</t>
+  </si>
+  <si>
+    <t>22/04/2024 07:02:47</t>
+  </si>
+  <si>
+    <t>他為保護台灣文化遺產向年輕一代的人展現公益物品，我認為這是很多人現在都不太會做的事情，很值得被宣傳。</t>
+  </si>
+  <si>
+    <t>介紹了當地的建築特色，從歷史回看到現代的運用都與我們息息相關，可以更了解士林的建築與其他地區有什麼特別之處。</t>
+  </si>
+  <si>
+    <t>介紹當地人的故事</t>
+  </si>
+  <si>
+    <t>無！</t>
+  </si>
+  <si>
+    <t>22/04/2024 07:16:38</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:40:48</t>
+  </si>
+  <si>
+    <t>I love the culture of the temples.</t>
+  </si>
+  <si>
+    <t>很有共鳴</t>
+  </si>
+  <si>
+    <t>都很喜歡</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:42:37</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:42:39</t>
+  </si>
+  <si>
+    <t>看到她的故事讓我感受到了今昔的對比。</t>
+  </si>
+  <si>
+    <t>我覺得士林的矮房古色古香。</t>
+  </si>
+  <si>
+    <t>國際化</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:43:15</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:43:18</t>
+  </si>
+  <si>
+    <t>方便</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:44:09</t>
+  </si>
+  <si>
+    <t>標示清楚，簡潔明瞭</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:44:19</t>
+  </si>
+  <si>
+    <t>台灣傳統文化是必須被保存的，有國外同學願意認識台灣的宮廟文化，認識台灣特別的宗教文化讓我很開心</t>
+  </si>
+  <si>
+    <t>排版跟照片都很棒</t>
+  </si>
+  <si>
+    <t>可以擴大範圍，逐步往大台北做</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:44:36</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:46:41</t>
+  </si>
+  <si>
+    <t>資料多且更有趣</t>
+  </si>
+  <si>
+    <t>簡單明瞭</t>
+  </si>
+  <si>
+    <t>可以讓網頁更動態一點！</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:46:59</t>
+  </si>
+  <si>
+    <t>設計簡潔明瞭 美觀</t>
+  </si>
+  <si>
+    <t>地點太少</t>
+  </si>
+  <si>
+    <t>夜市、學校、故宮 都是重要文化指標</t>
+  </si>
+  <si>
+    <t>22/04/2024 11:44:37</t>
+  </si>
+  <si>
+    <t>方便使用</t>
+  </si>
+  <si>
+    <t>咖啡廳地圖</t>
+  </si>
+  <si>
+    <t>22/04/2024 11:44:44</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:03:32</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:11:11</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:13:45</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:14:31</t>
+  </si>
+  <si>
+    <t>His contribution to history preservation</t>
+  </si>
+  <si>
+    <t>related to my daily life</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:14:33</t>
+  </si>
+  <si>
+    <t>Overall layout and detailed interview</t>
+  </si>
+  <si>
+    <t>I can see you put in a lot of effort!!</t>
+  </si>
+  <si>
+    <t>Layout of pictures and word block, and the use of color pattern.</t>
+  </si>
+  <si>
+    <t>Nope :))</t>
+  </si>
+  <si>
+    <t>Maybe some history and modern side of SCU</t>
+  </si>
+  <si>
+    <t>:3</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:18:27</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:18:54</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:18:55</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:27:55</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:29:25</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>22/04/2024 10:54:07</t>
+  </si>
+  <si>
+    <t>22/04/2024 12:38:56</t>
+  </si>
+  <si>
+    <t>I felt it showcased both historical and modern influences well.</t>
+  </si>
+  <si>
+    <t>I liked how image-focused it was. The photographs give the whole website a really professional feeling.</t>
+  </si>
+  <si>
+    <t>22/04/2024 13:42:38</t>
+  </si>
+  <si>
+    <t>22/04/2024 14:03:25</t>
+  </si>
+  <si>
+    <t>22/04/2024 15:28:28</t>
+  </si>
+  <si>
+    <t>22/04/2024 16:38:57</t>
   </si>
 </sst>
 </file>
@@ -886,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3399,6 +3847,1510 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
+    <row r="40" spans="1:23" ht="197.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>4</v>
+      </c>
+      <c r="N40" s="1">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>2</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" ht="123.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1">
+        <v>5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>5</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="2"/>
+      <c r="W41" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>5</v>
+      </c>
+      <c r="L42" s="1">
+        <v>5</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5</v>
+      </c>
+      <c r="N42" s="1">
+        <v>5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>5</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" ht="333" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>5</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>4</v>
+      </c>
+      <c r="O43" s="1">
+        <v>5</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="197.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1">
+        <v>5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>4</v>
+      </c>
+      <c r="O44" s="1">
+        <v>4</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>5</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>5</v>
+      </c>
+      <c r="M45" s="1">
+        <v>4</v>
+      </c>
+      <c r="N45" s="1">
+        <v>5</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>5</v>
+      </c>
+      <c r="L46" s="1">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>5</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="1">
+        <v>3</v>
+      </c>
+      <c r="N48" s="1">
+        <v>4</v>
+      </c>
+      <c r="O48" s="1">
+        <v>3</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5</v>
+      </c>
+      <c r="J49" s="1">
+        <v>5</v>
+      </c>
+      <c r="K49" s="1">
+        <v>4</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5</v>
+      </c>
+      <c r="M49" s="1">
+        <v>5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>4</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4</v>
+      </c>
+      <c r="K50" s="1">
+        <v>4</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1">
+        <v>4</v>
+      </c>
+      <c r="O50" s="1">
+        <v>5</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>4</v>
+      </c>
+      <c r="L51" s="1">
+        <v>4</v>
+      </c>
+      <c r="M51" s="1">
+        <v>4</v>
+      </c>
+      <c r="N51" s="1">
+        <v>4</v>
+      </c>
+      <c r="O51" s="1">
+        <v>3</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5</v>
+      </c>
+      <c r="K52" s="1">
+        <v>5</v>
+      </c>
+      <c r="L52" s="1">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1">
+        <v>5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>3</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1">
+        <v>4</v>
+      </c>
+      <c r="N53" s="1">
+        <v>4</v>
+      </c>
+      <c r="O53" s="1">
+        <v>2</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>5</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3</v>
+      </c>
+      <c r="M54" s="1">
+        <v>4</v>
+      </c>
+      <c r="N54" s="1">
+        <v>5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>4</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>5</v>
+      </c>
+      <c r="L55" s="1">
+        <v>3</v>
+      </c>
+      <c r="M55" s="1">
+        <v>3</v>
+      </c>
+      <c r="N55" s="1">
+        <v>5</v>
+      </c>
+      <c r="O55" s="1">
+        <v>4</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="1">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1">
+        <v>5</v>
+      </c>
+      <c r="L56" s="1">
+        <v>5</v>
+      </c>
+      <c r="M56" s="1">
+        <v>5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>5</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1">
+        <v>5</v>
+      </c>
+      <c r="J57" s="1">
+        <v>5</v>
+      </c>
+      <c r="K57" s="1">
+        <v>4</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>5</v>
+      </c>
+      <c r="K58" s="1">
+        <v>5</v>
+      </c>
+      <c r="L58" s="1">
+        <v>5</v>
+      </c>
+      <c r="M58" s="1">
+        <v>4</v>
+      </c>
+      <c r="N58" s="1">
+        <v>4</v>
+      </c>
+      <c r="O58" s="1">
+        <v>3</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4</v>
+      </c>
+      <c r="J59" s="1">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>3</v>
+      </c>
+      <c r="M59" s="1">
+        <v>3</v>
+      </c>
+      <c r="N59" s="1">
+        <v>4</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="1:23" ht="160.80000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1">
+        <v>5</v>
+      </c>
+      <c r="J60" s="1">
+        <v>5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>5</v>
+      </c>
+      <c r="L60" s="1">
+        <v>5</v>
+      </c>
+      <c r="M60" s="1">
+        <v>5</v>
+      </c>
+      <c r="N60" s="1">
+        <v>5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>5</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="210" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1">
+        <v>5</v>
+      </c>
+      <c r="K61" s="1">
+        <v>5</v>
+      </c>
+      <c r="L61" s="1">
+        <v>5</v>
+      </c>
+      <c r="M61" s="1">
+        <v>5</v>
+      </c>
+      <c r="N61" s="1">
+        <v>5</v>
+      </c>
+      <c r="O61" s="1">
+        <v>5</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1">
+        <v>5</v>
+      </c>
+      <c r="K62" s="1">
+        <v>5</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+      <c r="M62" s="1">
+        <v>5</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4</v>
+      </c>
+      <c r="O62" s="1">
+        <v>4</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="1:23" ht="99.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>5</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5</v>
+      </c>
+      <c r="J63" s="1">
+        <v>5</v>
+      </c>
+      <c r="K63" s="1">
+        <v>5</v>
+      </c>
+      <c r="L63" s="1">
+        <v>5</v>
+      </c>
+      <c r="M63" s="1">
+        <v>5</v>
+      </c>
+      <c r="N63" s="1">
+        <v>5</v>
+      </c>
+      <c r="O63" s="1">
+        <v>5</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="T63" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3406,32 +5358,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA05A22-873E-43B9-AB36-7F73263680D2}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1">
         <v>4</v>
@@ -3475,22 +5427,22 @@
     </row>
     <row r="2" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -3534,22 +5486,22 @@
     </row>
     <row r="3" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -3586,39 +5538,39 @@
         <v>7</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="111.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -3651,41 +5603,41 @@
         <v>9</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -3729,22 +5681,22 @@
     </row>
     <row r="6" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -3781,39 +5733,39 @@
         <v>7</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -3857,22 +5809,22 @@
     </row>
     <row r="8" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -3914,6 +5866,2409 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
+    <row r="9" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="87" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>4</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" ht="173.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>4</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>5</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1">
+        <v>5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" ht="148.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1">
+        <v>5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>5</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4</v>
+      </c>
+      <c r="O27" s="1">
+        <v>3</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>4</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>4</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
+      <c r="N31" s="1">
+        <v>4</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>4</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>4</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" ht="87" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>4</v>
+      </c>
+      <c r="N37" s="1">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1">
+        <v>4</v>
+      </c>
+      <c r="M38" s="1">
+        <v>4</v>
+      </c>
+      <c r="N38" s="1">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4</v>
+      </c>
+      <c r="M39" s="1">
+        <v>4</v>
+      </c>
+      <c r="N39" s="1">
+        <v>4</v>
+      </c>
+      <c r="O39" s="1">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>5</v>
+      </c>
+      <c r="N40" s="1">
+        <v>5</v>
+      </c>
+      <c r="O40" s="1">
+        <v>5</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>4</v>
+      </c>
+      <c r="N41" s="1">
+        <v>4</v>
+      </c>
+      <c r="O41" s="1">
+        <v>4</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1">
+        <v>4</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4</v>
+      </c>
+      <c r="M42" s="1">
+        <v>4</v>
+      </c>
+      <c r="N42" s="1">
+        <v>4</v>
+      </c>
+      <c r="O42" s="1">
+        <v>4</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1">
+        <v>4</v>
+      </c>
+      <c r="M43" s="1">
+        <v>4</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>4</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1">
+        <v>4</v>
+      </c>
+      <c r="N44" s="1">
+        <v>3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>3</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1">
+        <v>3</v>
+      </c>
+      <c r="O45" s="1">
+        <v>3</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/IQP/IQP_Survey_Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3757A4F4-7850-478C-A18F-BD4F65225226}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0B3910-E908-4F65-836A-71C6DBF279B7}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="381">
   <si>
     <t>19/04/2024 18:04:50</t>
   </si>
@@ -779,9 +779,6 @@
     <t>20/04/2024 09:26:26</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>His page contains video where he describes the history of the school well.</t>
   </si>
   <si>
@@ -1002,6 +999,177 @@
   </si>
   <si>
     <t>22/04/2024 16:38:57</t>
+  </si>
+  <si>
+    <t>22/04/2024 21:06:34</t>
+  </si>
+  <si>
+    <t>22/04/2024 21:19:03</t>
+  </si>
+  <si>
+    <t>22/04/2024 21:25:48</t>
+  </si>
+  <si>
+    <t>更有台灣道地味道</t>
+  </si>
+  <si>
+    <t>放假第一個見到的就是捷運，不得不喜歡</t>
+  </si>
+  <si>
+    <t>22/04/2024 21:58:28</t>
+  </si>
+  <si>
+    <t>因為他是女的</t>
+  </si>
+  <si>
+    <t>常路過</t>
+  </si>
+  <si>
+    <t>都喜歡</t>
+  </si>
+  <si>
+    <t>沒有不喜歡</t>
+  </si>
+  <si>
+    <t>沒</t>
+  </si>
+  <si>
+    <t>22/04/2024 22:02:58</t>
+  </si>
+  <si>
+    <t>22/04/2024 22:09:35</t>
+  </si>
+  <si>
+    <t>23/04/2024 02:42:03</t>
+  </si>
+  <si>
+    <t>設計簡潔</t>
+  </si>
+  <si>
+    <t>指引可以更清楚一些，還有網站設計的目的</t>
+  </si>
+  <si>
+    <t>22/04/2024 17:07:00</t>
+  </si>
+  <si>
+    <t>I like his passion and love for the Shilin district. Now being the director of the Zhishanyan Huiji Temple.</t>
+  </si>
+  <si>
+    <t>I liked to see the traditional architecture it possesses. I also find the story of the memorials to be fascinating.</t>
+  </si>
+  <si>
+    <t>I like the way it was structured and how easy it is to navigate</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>22/04/2024 18:33:58</t>
+  </si>
+  <si>
+    <t>Bc I like to learn about TCM</t>
+  </si>
+  <si>
+    <t>I like public transportation</t>
+  </si>
+  <si>
+    <t>I like the visuals</t>
+  </si>
+  <si>
+    <t>I looks better in a laptop</t>
+  </si>
+  <si>
+    <t>Links to famous restaurants or historical restaurant bc of how important food is to the culture</t>
+  </si>
+  <si>
+    <t>22/04/2024 22:42:23</t>
+  </si>
+  <si>
+    <t>Because she is a woman in STEM</t>
+  </si>
+  <si>
+    <t>Because I'm an elementary school teacher in Massachusetts, so it was interesting perspective to see!</t>
+  </si>
+  <si>
+    <t>ease of navigation</t>
+  </si>
+  <si>
+    <t>22/04/2024 23:06:00</t>
+  </si>
+  <si>
+    <t>It was so interesting to hear about her grandfather's and grandmother's life experiences with the Japanese soldiers. The grandfather made it a better experience by helping the soldiers and the local community by being very kind.</t>
+  </si>
+  <si>
+    <t>Interesting to learn what commerce was being conducted at the time</t>
+  </si>
+  <si>
+    <t>The personal stories</t>
+  </si>
+  <si>
+    <t>Liked the website- want more personal stories</t>
+  </si>
+  <si>
+    <t>More personal stories and historical facts to entice individuals to want to learn more or even visit Taiwan someday</t>
+  </si>
+  <si>
+    <t>Thank you for the opportunity to learn about Taiwan as I did not know anything</t>
+  </si>
+  <si>
+    <t>22/04/2024 23:09:25</t>
+  </si>
+  <si>
+    <t>interesting connection to History</t>
+  </si>
+  <si>
+    <t>I'm an elementary school teacher</t>
+  </si>
+  <si>
+    <t>Clear graphics and interesting content</t>
+  </si>
+  <si>
+    <t>22/04/2024 23:41:59</t>
+  </si>
+  <si>
+    <t>23/04/2024 01:13:28</t>
+  </si>
+  <si>
+    <t>23/04/2024 01:40:16</t>
+  </si>
+  <si>
+    <t>23/04/2024 09:53:41</t>
+  </si>
+  <si>
+    <t>The people</t>
+  </si>
+  <si>
+    <t>Very insightful and informative</t>
+  </si>
+  <si>
+    <t>23/04/2024 09:58:55</t>
+  </si>
+  <si>
+    <t>Inspiring</t>
+  </si>
+  <si>
+    <t>23/04/2024 10:02:04</t>
+  </si>
+  <si>
+    <t>23/04/2024 10:24:30</t>
+  </si>
+  <si>
+    <t>You can tell how much he cares about sharing the history and culture with others especially for the younger generation so that it is properly appreciated and not forgotten.</t>
+  </si>
+  <si>
+    <t>It was interesting to learn about the historical and cultural significance of the mill and the effect it’s had on the people in Shilin over the years</t>
+  </si>
+  <si>
+    <t>I liked that you mentioned the goal of your project, added an about us page with acknowledgments, and that you added language options</t>
+  </si>
+  <si>
+    <t>I would like to see the opinions of the people you interviewed(or honestly just random residents/students) on what their favorite parts of the city/country are and why(maybe a brief quote/bullet about what they do for fun, their favorite place to eat, or some hidden gems), or what they would personally recommend to tourists. Like a fun facts / ‘for when you come visit’ page. You could also add a map with all of those points pinned</t>
+  </si>
+  <si>
+    <t>I’d add a picture or two to the history page and captions to the slideshow on the home page if you can, like just the name of the person or place in the picture</t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1732,7 +1900,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="111.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" ht="123.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -5231,7 +5399,7 @@
     </row>
     <row r="62" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
@@ -5290,7 +5458,7 @@
     </row>
     <row r="63" spans="1:23" ht="99.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>172</v>
@@ -5338,18 +5506,788 @@
         <v>6</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="1:23" ht="173.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>5</v>
+      </c>
+      <c r="J64" s="1">
+        <v>4</v>
+      </c>
+      <c r="K64" s="1">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1">
+        <v>4</v>
+      </c>
+      <c r="M64" s="1">
+        <v>5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>4</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3</v>
+      </c>
+      <c r="L65" s="1">
+        <v>5</v>
+      </c>
+      <c r="M65" s="1">
+        <v>3</v>
+      </c>
+      <c r="N65" s="1">
+        <v>3</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="1:23" ht="148.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1">
+        <v>5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1">
+        <v>4</v>
+      </c>
+      <c r="L66" s="1">
+        <v>4</v>
+      </c>
+      <c r="M66" s="1">
+        <v>4</v>
+      </c>
+      <c r="N66" s="1">
+        <v>4</v>
+      </c>
+      <c r="O66" s="1">
+        <v>5</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="1:23" ht="320.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1">
+        <v>5</v>
+      </c>
+      <c r="J67" s="1">
+        <v>5</v>
+      </c>
+      <c r="K67" s="1">
+        <v>4</v>
+      </c>
+      <c r="L67" s="1">
+        <v>4</v>
+      </c>
+      <c r="M67" s="1">
+        <v>4</v>
+      </c>
+      <c r="N67" s="1">
+        <v>4</v>
+      </c>
+      <c r="O67" s="1">
+        <v>4</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>4</v>
+      </c>
+      <c r="J68" s="1">
+        <v>5</v>
+      </c>
+      <c r="K68" s="1">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1">
+        <v>3</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1">
+        <v>4</v>
+      </c>
+      <c r="O68" s="1">
+        <v>3</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4</v>
+      </c>
+      <c r="I69" s="1">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1">
+        <v>5</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4</v>
+      </c>
+      <c r="L69" s="1">
+        <v>5</v>
+      </c>
+      <c r="M69" s="1">
+        <v>3</v>
+      </c>
+      <c r="N69" s="1">
+        <v>4</v>
+      </c>
+      <c r="O69" s="1">
+        <v>4</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1">
+        <v>5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>5</v>
+      </c>
+      <c r="J70" s="1">
+        <v>5</v>
+      </c>
+      <c r="K70" s="1">
+        <v>5</v>
+      </c>
+      <c r="L70" s="1">
+        <v>5</v>
+      </c>
+      <c r="M70" s="1">
+        <v>5</v>
+      </c>
+      <c r="N70" s="1">
+        <v>5</v>
+      </c>
+      <c r="O70" s="1">
+        <v>5</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>5</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1">
+        <v>3</v>
+      </c>
+      <c r="L71" s="1">
+        <v>3</v>
+      </c>
+      <c r="M71" s="1">
+        <v>4</v>
+      </c>
+      <c r="N71" s="1">
+        <v>4</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>5</v>
+      </c>
+      <c r="K72" s="1">
+        <v>5</v>
+      </c>
+      <c r="L72" s="1">
+        <v>5</v>
+      </c>
+      <c r="M72" s="1">
+        <v>5</v>
+      </c>
+      <c r="N72" s="1">
+        <v>5</v>
+      </c>
+      <c r="O72" s="1">
+        <v>5</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4</v>
+      </c>
+      <c r="J73" s="1">
+        <v>5</v>
+      </c>
+      <c r="K73" s="1">
+        <v>3</v>
+      </c>
+      <c r="L73" s="1">
+        <v>5</v>
+      </c>
+      <c r="M73" s="1">
+        <v>4</v>
+      </c>
+      <c r="N73" s="1">
+        <v>5</v>
+      </c>
+      <c r="O73" s="1">
+        <v>3</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>5</v>
+      </c>
+      <c r="J74" s="1">
+        <v>5</v>
+      </c>
+      <c r="K74" s="1">
+        <v>5</v>
+      </c>
+      <c r="L74" s="1">
+        <v>5</v>
+      </c>
+      <c r="M74" s="1">
+        <v>5</v>
+      </c>
+      <c r="N74" s="1">
+        <v>5</v>
+      </c>
+      <c r="O74" s="1">
+        <v>5</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>5</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4</v>
+      </c>
+      <c r="J75" s="1">
+        <v>5</v>
+      </c>
+      <c r="K75" s="1">
+        <v>3</v>
+      </c>
+      <c r="L75" s="1">
+        <v>4</v>
+      </c>
+      <c r="M75" s="1">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1">
+        <v>3</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5358,10 +6296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA05A22-873E-43B9-AB36-7F73263680D2}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5558,7 +6496,7 @@
         <v>249</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>198</v>
@@ -5603,19 +6541,19 @@
         <v>9</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -5998,10 +6936,10 @@
     </row>
     <row r="11" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>198</v>
@@ -6051,7 +6989,7 @@
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>169</v>
@@ -6061,10 +6999,10 @@
     </row>
     <row r="12" spans="1:23" ht="74.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>198</v>
@@ -6114,7 +7052,7 @@
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>41</v>
@@ -6317,7 +7255,7 @@
     </row>
     <row r="16" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>191</v>
@@ -6376,7 +7314,7 @@
     </row>
     <row r="17" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>191</v>
@@ -6435,7 +7373,7 @@
     </row>
     <row r="18" spans="1:23" ht="173.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>191</v>
@@ -6483,30 +7421,30 @@
         <v>9</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="S18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="V18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>191</v>
@@ -6565,7 +7503,7 @@
     </row>
     <row r="20" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>191</v>
@@ -6613,16 +7551,16 @@
         <v>37</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>201</v>
@@ -6636,7 +7574,7 @@
     </row>
     <row r="21" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>191</v>
@@ -6695,7 +7633,7 @@
     </row>
     <row r="22" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>191</v>
@@ -6743,16 +7681,16 @@
         <v>6</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="S22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>219</v>
@@ -6766,7 +7704,7 @@
     </row>
     <row r="23" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>191</v>
@@ -6825,7 +7763,7 @@
     </row>
     <row r="24" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>191</v>
@@ -6877,7 +7815,7 @@
         <v>7</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -6886,7 +7824,7 @@
     </row>
     <row r="25" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>191</v>
@@ -6939,7 +7877,7 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -6947,7 +7885,7 @@
     </row>
     <row r="26" spans="1:23" ht="148.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>191</v>
@@ -6999,22 +7937,22 @@
         <v>15</v>
       </c>
       <c r="S26" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>219</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>191</v>
@@ -7073,7 +8011,7 @@
     </row>
     <row r="28" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>191</v>
@@ -7121,20 +8059,20 @@
         <v>6</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>201</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>201</v>
@@ -7142,7 +8080,7 @@
     </row>
     <row r="29" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>191</v>
@@ -7195,19 +8133,19 @@
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>191</v>
@@ -7260,17 +8198,17 @@
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>191</v>
@@ -7329,7 +8267,7 @@
     </row>
     <row r="32" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>191</v>
@@ -7388,7 +8326,7 @@
     </row>
     <row r="33" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>191</v>
@@ -7447,7 +8385,7 @@
     </row>
     <row r="34" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>191</v>
@@ -7506,7 +8444,7 @@
     </row>
     <row r="35" spans="1:23" ht="74.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>191</v>
@@ -7554,13 +8492,13 @@
         <v>9</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -7569,7 +8507,7 @@
     </row>
     <row r="36" spans="1:23" ht="87" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>191</v>
@@ -7617,30 +8555,30 @@
         <v>6</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>68</v>
       </c>
       <c r="S36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="T36" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="U36" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="V36" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>191</v>
@@ -7699,7 +8637,7 @@
     </row>
     <row r="38" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>191</v>
@@ -7758,7 +8696,7 @@
     </row>
     <row r="39" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>191</v>
@@ -7817,7 +8755,7 @@
     </row>
     <row r="40" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>191</v>
@@ -7876,7 +8814,7 @@
     </row>
     <row r="41" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>191</v>
@@ -7935,7 +8873,7 @@
     </row>
     <row r="42" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>191</v>
@@ -7994,7 +8932,7 @@
     </row>
     <row r="43" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>191</v>
@@ -8053,7 +8991,7 @@
     </row>
     <row r="44" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>191</v>
@@ -8112,7 +9050,7 @@
     </row>
     <row r="45" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>191</v>
@@ -8169,105 +9107,438 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="2"/>
+    <row r="46" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>5</v>
+      </c>
+      <c r="L46" s="1">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>5</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="2"/>
+    <row r="47" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3</v>
+      </c>
+      <c r="M47" s="1">
+        <v>3</v>
+      </c>
+      <c r="N47" s="1">
+        <v>3</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
+      <c r="R47" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
+    <row r="48" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>4</v>
+      </c>
+      <c r="N48" s="1">
+        <v>3</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="T48" s="2"/>
-      <c r="U48" s="3"/>
+      <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+    <row r="49" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>4</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3</v>
+      </c>
+      <c r="M49" s="1">
+        <v>4</v>
+      </c>
+      <c r="N49" s="1">
+        <v>3</v>
+      </c>
+      <c r="O49" s="1">
+        <v>4</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4</v>
+      </c>
+      <c r="K50" s="1">
+        <v>3</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1">
+        <v>4</v>
+      </c>
+      <c r="O50" s="1">
+        <v>4</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
+      <c r="L51" s="1">
+        <v>4</v>
+      </c>
+      <c r="M51" s="1">
+        <v>4</v>
+      </c>
+      <c r="N51" s="1">
+        <v>4</v>
+      </c>
+      <c r="O51" s="1">
+        <v>3</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1">
+        <v>5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/IQP/IQP_Survey_Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0B3910-E908-4F65-836A-71C6DBF279B7}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EC73E7B-389E-453E-BAFB-8794A4D0C790}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="410">
   <si>
     <t>19/04/2024 18:04:50</t>
   </si>
@@ -1170,6 +1170,93 @@
   </si>
   <si>
     <t>I’d add a picture or two to the history page and captions to the slideshow on the home page if you can, like just the name of the person or place in the picture</t>
+  </si>
+  <si>
+    <t>23/04/2024 15:54:41</t>
+  </si>
+  <si>
+    <t>I’m very impressed with the story that she was experienced in person.</t>
+  </si>
+  <si>
+    <t>I love the words that you use to describe the dry river. It’s very happy to see the trace of the old river still remaining there.</t>
+  </si>
+  <si>
+    <t>The website’s completion, the stories, and the way you introduce the story and history.</t>
+  </si>
+  <si>
+    <t>I think there are still some things that need to be completed.</t>
+  </si>
+  <si>
+    <t>You guys did a great job! I’m very surprised that how well the website is performing.</t>
+  </si>
+  <si>
+    <t>24/04/2024 23:06:51</t>
+  </si>
+  <si>
+    <t>圖片很漂亮，尤其是那張士林夜景圖</t>
+  </si>
+  <si>
+    <t>在人名旁邊可以加上一句話介紹，讓瀏覽網頁的人可以先簡單知道這個人的身分，在選擇的時候也更有方向性！</t>
+  </si>
+  <si>
+    <t>23/04/2024 20:16:50</t>
+  </si>
+  <si>
+    <t>I feel that I can relate to Mr. WU Jian-Hong as I am also an elementary school teacher. I love that he has taught for so many years and sounds like he is leaving behind a wonderful legacy!</t>
+  </si>
+  <si>
+    <t>Being an educator, I enjoyed learning about the school.</t>
+  </si>
+  <si>
+    <t>How easy it was to navigate it.</t>
+  </si>
+  <si>
+    <t>I did not find anything I disliked about it.</t>
+  </si>
+  <si>
+    <t>I thought it was great.</t>
+  </si>
+  <si>
+    <t>Well done!</t>
+  </si>
+  <si>
+    <t>23/04/2024 23:18:43</t>
+  </si>
+  <si>
+    <t>It was interesting reading about the traditions behind her current work</t>
+  </si>
+  <si>
+    <t>Very aesthetically pleasing</t>
+  </si>
+  <si>
+    <t>There wasn’t anything</t>
+  </si>
+  <si>
+    <t>24/04/2024 01:36:05</t>
+  </si>
+  <si>
+    <t>I loved the opening page</t>
+  </si>
+  <si>
+    <t>24/04/2024 23:23:44</t>
+  </si>
+  <si>
+    <t>My eye was caught immediately when her description said she was a descendant of one of the oldest families of Shilin, and the article did not disappoint. Although I have never visited, her family’s pharmacy is such an important place marker when considering modernity and the switch to Western medicine that her and her family as well as the country undertook during a period of modernization. It was such an important story to share, and I am so happy that I got to learn about her via this website!</t>
+  </si>
+  <si>
+    <t>Because so much of this website focuses on the timeline and the circumstances under which the community and country made the transition into more modern or western concepts, including the temple as a marker of tradition even in a modern world is pivotal. Even though so much has changed in the centuries that this district has existed for, the permanence of the temple as both a material concept as well as traditional one shows the importance of sacred traditions even in a technologically changing world.</t>
+  </si>
+  <si>
+    <t>It’s very fluid. It was very easy for me to grasp the concept of the website (it almost flows like an essay in which you present traditional histories/practices in conjunction with modern life), and I really really enjoyed the personal stories that were shared in the “People” section.</t>
+  </si>
+  <si>
+    <t>No notes!</t>
+  </si>
+  <si>
+    <t>Maybe more stories! Stories from younger people perhaps? Not really sure!</t>
+  </si>
+  <si>
+    <t>Amazing job! Will be sharing this with my family and friends because it is great work! I can’t wait to visit one day!!</t>
   </si>
 </sst>
 </file>
@@ -1502,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W75"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1709,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="87" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" ht="123.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1768,13 +1855,13 @@
       <c r="T4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" ht="123.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1833,7 +1920,7 @@
       <c r="T5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="V5" s="2"/>
@@ -2166,7 +2253,7 @@
       <c r="T10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="V10" s="2"/>
@@ -2498,7 +2585,7 @@
       <c r="U15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="W15" s="2"/>
@@ -3890,7 +3977,7 @@
       <c r="U37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="V37" s="2" t="s">
         <v>142</v>
       </c>
       <c r="W37" s="2"/>
@@ -4718,7 +4805,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" ht="197.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>184</v>
       </c>
@@ -4779,7 +4866,7 @@
       <c r="T51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="U51" s="2" t="s">
         <v>188</v>
       </c>
       <c r="V51" s="2"/>
@@ -5392,7 +5479,7 @@
       <c r="U61" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="V61" s="3" t="s">
+      <c r="V61" s="2" t="s">
         <v>248</v>
       </c>
       <c r="W61" s="2"/>
@@ -5586,7 +5673,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" ht="123.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>345</v>
       </c>
@@ -5650,7 +5737,7 @@
       <c r="U65" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="V65" s="3" t="s">
+      <c r="V65" s="2" t="s">
         <v>350</v>
       </c>
       <c r="W65" s="2"/>
@@ -6287,6 +6374,274 @@
       </c>
       <c r="W75" s="3" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="271.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>5</v>
+      </c>
+      <c r="I76" s="1">
+        <v>5</v>
+      </c>
+      <c r="J76" s="1">
+        <v>5</v>
+      </c>
+      <c r="K76" s="1">
+        <v>3</v>
+      </c>
+      <c r="L76" s="1">
+        <v>5</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3</v>
+      </c>
+      <c r="N76" s="1">
+        <v>5</v>
+      </c>
+      <c r="O76" s="1">
+        <v>3</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="111.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>5</v>
+      </c>
+      <c r="J77" s="1">
+        <v>5</v>
+      </c>
+      <c r="K77" s="1">
+        <v>5</v>
+      </c>
+      <c r="L77" s="1">
+        <v>5</v>
+      </c>
+      <c r="M77" s="1">
+        <v>3</v>
+      </c>
+      <c r="N77" s="1">
+        <v>5</v>
+      </c>
+      <c r="O77" s="1">
+        <v>4</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="1:23" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1">
+        <v>5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>5</v>
+      </c>
+      <c r="I78" s="1">
+        <v>5</v>
+      </c>
+      <c r="J78" s="1">
+        <v>5</v>
+      </c>
+      <c r="K78" s="1">
+        <v>5</v>
+      </c>
+      <c r="L78" s="1">
+        <v>5</v>
+      </c>
+      <c r="M78" s="1">
+        <v>5</v>
+      </c>
+      <c r="N78" s="1">
+        <v>5</v>
+      </c>
+      <c r="O78" s="1">
+        <v>5</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="1:23" ht="409.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1">
+        <v>5</v>
+      </c>
+      <c r="H79" s="1">
+        <v>5</v>
+      </c>
+      <c r="I79" s="1">
+        <v>5</v>
+      </c>
+      <c r="J79" s="1">
+        <v>5</v>
+      </c>
+      <c r="K79" s="1">
+        <v>4</v>
+      </c>
+      <c r="L79" s="1">
+        <v>3</v>
+      </c>
+      <c r="M79" s="1">
+        <v>5</v>
+      </c>
+      <c r="N79" s="1">
+        <v>4</v>
+      </c>
+      <c r="O79" s="1">
+        <v>5</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6296,10 +6651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA05A22-873E-43B9-AB36-7F73263680D2}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9540,6 +9895,138 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
+    <row r="53" spans="1:23" ht="185.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4</v>
+      </c>
+      <c r="I53" s="1">
+        <v>5</v>
+      </c>
+      <c r="J53" s="1">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>5</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4</v>
+      </c>
+      <c r="M53" s="1">
+        <v>3</v>
+      </c>
+      <c r="N53" s="1">
+        <v>4</v>
+      </c>
+      <c r="O53" s="1">
+        <v>4</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="V53" s="2"/>
+      <c r="W53" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="50.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>5</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1">
+        <v>4</v>
+      </c>
+      <c r="N54" s="1">
+        <v>4</v>
+      </c>
+      <c r="O54" s="1">
+        <v>3</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="U54" s="2"/>
+      <c r="V54" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="W54" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
